--- a/Energías.xlsx
+++ b/Energías.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/TFG actualizado/TFG/B3LYP/_.out_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/21:JUNIO:2017/TFGSara/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="5160" windowWidth="28100" windowHeight="16680" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Neutros" sheetId="1" r:id="rId1"/>
@@ -6991,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:J45"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Energías.xlsx
+++ b/Energías.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Desktop/21:JUNIO:2017/TFGSara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saradelrioplaza/Desktop/TFGSara/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Neutros" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,6 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -6991,7 +6992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -11704,10 +11705,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12084,6 +12085,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="230">
+        <f>D6-D5</f>
+        <v>2.4440000000254258E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
